--- a/v0-1A/Parameters_v0-1A_Tarland.xlsx
+++ b/v0-1A/Parameters_v0-1A_Tarland.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="236">
   <si>
     <t>Param</t>
   </si>
@@ -759,6 +759,15 @@
   </si>
   <si>
     <t>C:\Data\SimplyP_Local\Temp\Output</t>
+  </si>
+  <si>
+    <t>Dynamic_effluent_inputs</t>
+  </si>
+  <si>
+    <t>Dynamic_terrestrialP_inputs</t>
+  </si>
+  <si>
+    <t>NOT YET IMPLEMENTED</t>
   </si>
 </sst>
 </file>
@@ -2118,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2301,40 +2310,36 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>143</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="44" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>131</v>
@@ -2343,12 +2348,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="44" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>131</v>
@@ -2357,115 +2362,143 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="42" t="s">
-        <v>147</v>
+    <row r="17" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>158</v>
+    <row r="18" spans="1:4" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="36">
-        <v>300</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>161</v>
+        <v>147</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="42" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>160</v>
+      </c>
+      <c r="C21" s="36">
+        <v>300</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B25" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D25" s="47" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="13" t="s">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B26" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D26" s="49" t="s">
         <v>154</v>
       </c>
     </row>

--- a/v0-1A/Parameters_v0-1A_Tarland.xlsx
+++ b/v0-1A/Parameters_v0-1A_Tarland.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="690" windowWidth="18198" windowHeight="11160" activeTab="1"/>
+    <workbookView minimized="1" xWindow="480" yWindow="690" windowWidth="18198" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="8" r:id="rId1"/>
@@ -1072,9 +1072,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1108,21 +1107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1171,7 +1157,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1317,13 +1302,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1340,7 +1322,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1536,6 +1517,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2129,376 +2116,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.68359375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.83984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="73.83984375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="53.578125" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="36"/>
+    <col min="1" max="1" width="26.68359375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.83984375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="73.83984375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="53.578125" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="25" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="20" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="22">
         <v>1</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="20" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="44" t="s">
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="35" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="33" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="22">
         <v>300</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="33" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="35" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2512,203 +2499,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.15625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.68359375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" style="18"/>
-    <col min="4" max="4" width="73" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.15625" style="18"/>
-    <col min="9" max="9" width="51.15625" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="18"/>
+    <col min="1" max="1" width="11.15625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.68359375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" style="17"/>
+    <col min="4" max="4" width="73" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.15625" style="17"/>
+    <col min="9" max="9" width="51.15625" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:9" s="100" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="99" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="123">
+      <c r="E2" s="104">
         <v>2</v>
       </c>
-      <c r="F2" s="124">
+      <c r="F2" s="105">
         <v>10</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="159" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="140" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="135" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:9" s="116" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="131">
+      <c r="E3" s="112">
         <v>1458</v>
       </c>
-      <c r="F3" s="132">
+      <c r="F3" s="113">
         <v>873</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="160" t="s">
+      <c r="G3" s="114"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="141" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="135" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="136" t="s">
+    <row r="4" spans="1:9" s="116" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="139">
+      <c r="E4" s="120">
         <v>10</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="121">
         <v>0</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142">
+      <c r="G4" s="122"/>
+      <c r="H4" s="123">
         <v>-5</v>
       </c>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="142" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="143" t="s">
+    <row r="5" spans="1:9" s="116" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="146">
+      <c r="E5" s="127">
         <v>0.1</v>
       </c>
-      <c r="F5" s="147">
+      <c r="F5" s="128">
         <v>0</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="162" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="143" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="154" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="150" t="s">
+    <row r="6" spans="1:9" s="135" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="150">
+      <c r="E6" s="131">
         <v>0.2</v>
       </c>
-      <c r="F6" s="151">
+      <c r="F6" s="132">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6" s="132">
         <v>0.09</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="163" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="144" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="154" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="155" t="s">
+    <row r="7" spans="1:9" s="135" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="157" t="s">
+      <c r="D7" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="136">
         <v>0</v>
       </c>
-      <c r="F7" s="156">
+      <c r="F7" s="137">
         <v>0</v>
       </c>
-      <c r="G7" s="156">
+      <c r="G7" s="137">
         <v>0</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="164" t="s">
+      <c r="H7" s="139"/>
+      <c r="I7" s="145" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2722,269 +2709,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="18"/>
+    <col min="4" max="4" width="58.20703125" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="164" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="164">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="18">
         <v>51.7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="160">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="160">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="160">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="160">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="160">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="160">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="160">
         <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="106">
+      <c r="E10" s="162">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E11" s="162">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="106">
+      <c r="E12" s="162">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="163" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="18">
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="18">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="103" t="s">
+    <row r="15" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="165">
         <v>0.1</v>
       </c>
     </row>
@@ -2998,394 +2987,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.15625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" style="6"/>
-    <col min="4" max="4" width="71.83984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15625" style="6"/>
-    <col min="6" max="6" width="52.68359375" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="6"/>
+    <col min="1" max="1" width="12.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.68359375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" style="5"/>
+    <col min="4" max="4" width="71.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.15625" style="5"/>
+    <col min="6" max="6" width="52.68359375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.15625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="49">
         <v>0</v>
       </c>
-      <c r="F2" s="66"/>
-    </row>
-    <row r="3" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="74" t="s">
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="60">
         <v>2.74</v>
       </c>
-      <c r="F3" s="77"/>
-    </row>
-    <row r="4" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="63" t="s">
+      <c r="F3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="50">
         <v>0.02</v>
       </c>
-      <c r="F4" s="66"/>
-    </row>
-    <row r="5" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="107" t="s">
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="91">
         <v>1</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="92" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="57">
         <v>290</v>
       </c>
-      <c r="F6" s="71"/>
-    </row>
-    <row r="7" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68" t="s">
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="55">
         <v>0.7</v>
       </c>
-      <c r="F7" s="71"/>
-    </row>
-    <row r="8" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68" t="s">
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="57">
         <v>65</v>
       </c>
-      <c r="F8" s="71"/>
-    </row>
-    <row r="9" spans="1:6" s="67" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68" t="s">
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" s="52" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="55">
         <v>0.4</v>
       </c>
-      <c r="F9" s="71"/>
-    </row>
-    <row r="10" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68" t="s">
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="58">
         <v>0.5</v>
       </c>
-      <c r="F10" s="71"/>
-    </row>
-    <row r="11" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="107" t="s">
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" s="93" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="91">
         <v>0.42</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="92" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="61">
         <v>1</v>
       </c>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="86" t="s">
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="73">
         <v>95</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="74" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="90" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:6" s="75" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="78">
         <v>1.1315280460000001E-4</v>
       </c>
-      <c r="F14" s="165" t="s">
+      <c r="F14" s="146" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="94" t="s">
+    <row r="15" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="81">
         <v>0.02</v>
       </c>
-      <c r="F15" s="114"/>
-    </row>
-    <row r="16" spans="1:6" s="90" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="94" t="s">
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="1:6" s="75" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="82">
         <v>1.6</v>
       </c>
-      <c r="F16" s="166" t="s">
+      <c r="F16" s="147" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="67">
         <v>1500</v>
       </c>
-      <c r="F17" s="81"/>
-    </row>
-    <row r="18" spans="1:6" s="80" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="83" t="s">
+      <c r="F17" s="66"/>
+    </row>
+    <row r="18" spans="1:6" s="65" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="88">
         <v>2</v>
       </c>
-      <c r="F18" s="85"/>
-    </row>
-    <row r="19" spans="1:6" s="80" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="98" t="s">
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:6" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="99">
+      <c r="E19" s="84">
         <v>60</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="148" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="80" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="100" t="s">
+    <row r="20" spans="1:6" s="65" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="86">
         <v>304</v>
       </c>
-      <c r="F20" s="168" t="s">
+      <c r="F20" s="149" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3405,326 +3394,326 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.26171875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.41796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="3"/>
+    <col min="1" max="1" width="16.26171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.41796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="112">
+      <c r="A6" s="94">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6.2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f>A6*B6*86400*1000*10^-6</f>
         <v>4.0175999999999989E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>0.01</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>A10*B10*86400*1000*10^-6</f>
         <v>2.5920000000000001</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f>C10*D10</f>
         <v>2.3328000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.65">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="37">
         <v>1000</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="38">
         <v>100</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="37">
         <v>2650</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="37">
         <v>10</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="38">
         <v>5</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="37">
         <v>30</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="47" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="41">
         <f>B15*B16/100</f>
         <v>100</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="40">
         <f>C15*C16/100</f>
         <v>5</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="41">
         <f>D15*D16/100</f>
         <v>795</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42.3" x14ac:dyDescent="0.5">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="158" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="159" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="170">
+      <c r="B21" s="151">
         <v>0.1</v>
       </c>
-      <c r="C21" s="171">
+      <c r="C21" s="152">
         <f>B21*1000</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="172">
+      <c r="B22" s="153">
         <v>1</v>
       </c>
-      <c r="C22" s="171">
+      <c r="C22" s="152">
         <f t="shared" ref="C22:C31" si="0">B22*1000</f>
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="170">
+      <c r="B23" s="151">
         <v>1.2</v>
       </c>
-      <c r="C23" s="171">
+      <c r="C23" s="152">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="150" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="170">
+      <c r="B24" s="151">
         <v>1.4</v>
       </c>
-      <c r="C24" s="171">
+      <c r="C24" s="152">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="150" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="170">
+      <c r="B25" s="151">
         <v>1.35</v>
       </c>
-      <c r="C25" s="171">
+      <c r="C25" s="152">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="150" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="170">
+      <c r="B26" s="151">
         <v>1.35</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="152">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="150" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="170">
+      <c r="B27" s="151">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="152">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="170">
+      <c r="B28" s="151">
         <v>1.8</v>
       </c>
-      <c r="C28" s="171">
+      <c r="C28" s="152">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="170">
+      <c r="B29" s="151">
         <v>1.7</v>
       </c>
-      <c r="C29" s="171">
+      <c r="C29" s="152">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="169" t="s">
+      <c r="A30" s="150" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="170">
+      <c r="B30" s="151">
         <v>1.65</v>
       </c>
-      <c r="C30" s="171">
+      <c r="C30" s="152">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="154" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="174">
+      <c r="B31" s="155">
         <v>2.65</v>
       </c>
-      <c r="C31" s="175">
+      <c r="C31" s="156">
         <f t="shared" si="0"/>
         <v>2650</v>
       </c>
